--- a/project report SEP2/Documentation/Burndown-Chart-SEP2.xlsx
+++ b/project report SEP2/Documentation/Burndown-Chart-SEP2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21279F-033B-46E8-A05E-78DDE2083D9C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B674278-54A4-4BBB-BB92-4A569A24C99E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,34 +202,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -244,91 +276,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,25 +305,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Accent3" xfId="2" builtinId="37"/>
+    <cellStyle name="Accent5" xfId="3" builtinId="45"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
@@ -421,23 +389,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -531,17 +483,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.1935418474338489E-2"/>
-          <c:y val="0.20126202974628171"/>
-          <c:w val="0.91323218480285229"/>
-          <c:h val="0.72359211410253488"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1601,16 +1543,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1639,7 +1581,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P38" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P38" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Explanatory Text">
   <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1947,13 +1889,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68:P69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
@@ -1969,307 +1911,307 @@
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>40</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>16</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
-      <c r="P2" s="17">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>40</v>
       </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
         <v>16</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>4</v>
       </c>
@@ -2278,1634 +2220,1634 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="18">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
         <v>8</v>
       </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="18">
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>40</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>20</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="18">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>40</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
         <v>16</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>40</v>
       </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
         <v>16</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="18">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>8</v>
       </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>8</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>8</v>
       </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="18">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>40</v>
       </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>40</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>8</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>8</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>8</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>8</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>8</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>8</v>
       </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="18">
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>40</v>
       </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>16</v>
       </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>40</v>
       </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>16</v>
       </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
-        <v>0</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>1</v>
       </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1</v>
       </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="18">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>40</v>
       </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
         <v>8</v>
       </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0</v>
-      </c>
-      <c r="M25" s="4">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
-      <c r="P25" s="18">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>120</v>
       </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>8</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="3">
         <v>8</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="3">
         <v>2</v>
       </c>
-      <c r="O26" s="4">
-        <v>0</v>
-      </c>
-      <c r="P26" s="18">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>120</v>
       </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="4">
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>40</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>40</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>40</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>20</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>160</v>
       </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
         <v>40</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>40</v>
       </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>120</v>
       </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4">
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>8</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>8</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>8</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>8</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>40</v>
       </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
         <v>8</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>40</v>
       </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
         <v>8</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>40</v>
       </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>8</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>40</v>
       </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4">
-        <v>0</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4">
-        <v>0</v>
-      </c>
-      <c r="O33" s="4">
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>2</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>40</v>
       </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
         <v>3</v>
       </c>
-      <c r="P34" s="18">
+      <c r="P34" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>40</v>
       </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4">
-        <v>0</v>
-      </c>
-      <c r="J35" s="4">
-        <v>0</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-      <c r="L35" s="4">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4">
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>3</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="7">
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:41" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="7">
         <f>SUM(B2:B35)</f>
         <v>1184</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="7">
         <f>B36-SUM(C2:C35)</f>
         <v>1168</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="7">
         <f>Table1[[#This Row],[Sprint 1 hours]]-SUM(D2:D35)</f>
         <v>1135</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="7">
         <f>Table1[[#This Row],[Sprint 2 hours]]-SUM(E2:E35)</f>
         <v>1083</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="7">
         <f>Table1[[#This Row],[Sprint 3 hours]]-SUM(F2:F35)</f>
         <v>1077</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="7">
         <f>Table1[[#This Row],[Sprint 4 hours]]-SUM(G2:G35)</f>
         <v>1058</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="7">
         <f>Table1[[#This Row],[Sprint 5 hours]]-SUM(H2:H35)</f>
         <v>1009</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="7">
         <f>Table1[[#This Row],[Sprint 6 hours]]-SUM(I2:I35)</f>
         <v>976</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J36" s="7">
         <f>Table1[[#This Row],[Sprint 7 hours]]-SUM(J2:J35)</f>
         <v>960</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="7">
         <f>Table1[[#This Row],[Sprint 8 hours]]-SUM(K2:K35)</f>
         <v>952</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="7">
         <f>Table1[[#This Row],[Sprint 9 hours]]-SUM(L2:L35)</f>
         <v>888</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="7">
         <f>Table1[[#This Row],[Sprint 10 hours]]-SUM(M2:M35)</f>
         <v>784</v>
       </c>
-      <c r="N36" s="14">
+      <c r="N36" s="7">
         <f>Table1[[#This Row],[Sprint 11 hours]]-SUM(N2:N35)</f>
         <v>669</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="7">
         <f>Table1[[#This Row],[Estimated hours]]-SUM(B2:B35)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="11"/>
+      <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:41" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:41" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="7">
         <f>B36</f>
         <v>1184</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <f>B37-($B$37/13)</f>
         <v>1092.9230769230769</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <f>C37-(B37/13)</f>
         <v>1001.8461538461538</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <f>D37-(B37/13)</f>
         <v>910.76923076923072</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <f>E37-(B37/13)</f>
         <v>819.69230769230762</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <f>F37-(B37/13)</f>
         <v>728.61538461538453</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <f>G37-(B37/13)</f>
         <v>637.53846153846143</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="8">
         <f>H37-(B37/13)</f>
         <v>546.46153846153834</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="8">
         <f>I37-(B37/13)</f>
         <v>455.38461538461524</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="8">
         <f>J37-(B37/13)</f>
         <v>364.30769230769215</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="8">
         <f>K37-(B37/13)</f>
         <v>273.23076923076906</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="8">
         <f>L37-(B37/13)</f>
         <v>182.15384615384596</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="8">
         <f>M37-(B37/13)</f>
         <v>91.076923076922881</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="8">
         <f>N37-(B37/13)</f>
         <v>-1.9895196601282805E-13</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
+      <c r="AI37" s="5"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="P38" s="12"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="P38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project report SEP2/Documentation/Burndown-Chart-SEP2.xlsx
+++ b/project report SEP2/Documentation/Burndown-Chart-SEP2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B674278-54A4-4BBB-BB92-4A569A24C99E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191DF0E0-F149-470A-B39E-3EF399B1D9CC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Tasks</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Sprint 13 hours</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -318,6 +321,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent3" xfId="2" builtinId="37"/>
@@ -325,7 +332,7 @@
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -333,6 +340,9 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -580,46 +590,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1184</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1168</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1135</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1083</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1077</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1058</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1009</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>976</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>960</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>952</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>888</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>784</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>669</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,8 +1591,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P38" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:P37" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q38" totalsRowCount="1" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:Q37" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1600,25 +1610,26 @@
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tasks" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Estimated hours" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sprint 1 hours" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sprint 2 hours" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sprint 3 hours" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sprint 4 hours" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sprint 5 hours" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sprint 6 hours" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sprint 7 hours" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Sprint 8 hours" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sprint 9 hours" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Sprint 10 hours" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint 11 hours" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Sprint 12 hours" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Sprint 13 hours" dataDxfId="1"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tasks" dataDxfId="18" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Estimated hours" dataDxfId="17" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sprint 1 hours" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sprint 2 hours" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sprint 3 hours" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sprint 4 hours" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sprint 5 hours" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sprint 6 hours" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sprint 7 hours" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Sprint 8 hours" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sprint 9 hours" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Sprint 10 hours" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sprint 11 hours" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Sprint 12 hours" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Sprint 13 hours" dataDxfId="4"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Total hours" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="17" xr3:uid="{E5D7C16C-53CE-4676-86FB-7F080E2BE960}" name="Column1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1889,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="B44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1922,7 @@
     <col min="16" max="16" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1960,8 +1971,11 @@
       <c r="P1" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="Q1" s="13" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2025,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
+      <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2062,8 +2077,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2113,8 +2129,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>4</v>
       </c>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2164,8 +2181,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>4</v>
       </c>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2215,8 +2233,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>4</v>
       </c>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2266,8 +2285,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
+      <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -2317,8 +2337,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
+      <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2368,8 +2389,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
+      <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -2419,8 +2441,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
+      <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -2470,8 +2493,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
+      <c r="Q11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2521,8 +2545,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>20</v>
       </c>
+      <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2572,8 +2597,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>20</v>
       </c>
+      <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -2623,8 +2649,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
+      <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2674,8 +2701,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>2</v>
       </c>
+      <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2725,8 +2753,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
+      <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
@@ -2776,8 +2805,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
+      <c r="Q17" s="3"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -2827,8 +2857,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
+      <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -2878,8 +2909,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>88</v>
       </c>
+      <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2929,8 +2961,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
+      <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -2980,8 +3013,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
+      <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -3031,8 +3065,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>16</v>
       </c>
+      <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -3082,8 +3117,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
+      <c r="Q23" s="3"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -3133,8 +3169,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>1</v>
       </c>
+      <c r="Q24" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -3184,8 +3221,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
+      <c r="Q25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -3235,8 +3273,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>18</v>
       </c>
+      <c r="Q26" s="3"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3286,8 +3325,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>140</v>
       </c>
+      <c r="Q27" s="3"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -3337,8 +3377,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>80</v>
       </c>
+      <c r="Q28" s="3"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3388,8 +3429,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>32</v>
       </c>
+      <c r="Q29" s="3"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -3439,8 +3481,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
+      <c r="Q30" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -3490,8 +3533,9 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
+      <c r="Q31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -3541,6 +3585,7 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>8</v>
       </c>
+      <c r="Q32" s="3"/>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -3592,6 +3637,7 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>2</v>
       </c>
+      <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -3643,6 +3689,7 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
+      <c r="Q34" s="3"/>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -3694,75 +3741,76 @@
         <f>SUM(Table1[[#This Row],[Sprint 1 hours]:[Sprint 13 hours]])</f>
         <v>3</v>
       </c>
+      <c r="Q35" s="3"/>
     </row>
     <row r="36" spans="1:41" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="7">
-        <f>SUM(B2:B35)</f>
-        <v>1184</v>
+        <v>600</v>
       </c>
       <c r="C36" s="7">
         <f>B36-SUM(C2:C35)</f>
-        <v>1168</v>
+        <v>584</v>
       </c>
       <c r="D36" s="7">
         <f>Table1[[#This Row],[Sprint 1 hours]]-SUM(D2:D35)</f>
-        <v>1135</v>
+        <v>551</v>
       </c>
       <c r="E36" s="7">
         <f>Table1[[#This Row],[Sprint 2 hours]]-SUM(E2:E35)</f>
-        <v>1083</v>
+        <v>499</v>
       </c>
       <c r="F36" s="7">
         <f>Table1[[#This Row],[Sprint 3 hours]]-SUM(F2:F35)</f>
-        <v>1077</v>
+        <v>493</v>
       </c>
       <c r="G36" s="7">
         <f>Table1[[#This Row],[Sprint 4 hours]]-SUM(G2:G35)</f>
-        <v>1058</v>
+        <v>474</v>
       </c>
       <c r="H36" s="7">
         <f>Table1[[#This Row],[Sprint 5 hours]]-SUM(H2:H35)</f>
-        <v>1009</v>
+        <v>425</v>
       </c>
       <c r="I36" s="7">
         <f>Table1[[#This Row],[Sprint 6 hours]]-SUM(I2:I35)</f>
-        <v>976</v>
+        <v>392</v>
       </c>
       <c r="J36" s="7">
         <f>Table1[[#This Row],[Sprint 7 hours]]-SUM(J2:J35)</f>
-        <v>960</v>
+        <v>376</v>
       </c>
       <c r="K36" s="7">
         <f>Table1[[#This Row],[Sprint 8 hours]]-SUM(K2:K35)</f>
-        <v>952</v>
+        <v>368</v>
       </c>
       <c r="L36" s="7">
         <f>Table1[[#This Row],[Sprint 9 hours]]-SUM(L2:L35)</f>
-        <v>888</v>
+        <v>304</v>
       </c>
       <c r="M36" s="7">
         <f>Table1[[#This Row],[Sprint 10 hours]]-SUM(M2:M35)</f>
-        <v>784</v>
+        <v>200</v>
       </c>
       <c r="N36" s="7">
         <f>Table1[[#This Row],[Sprint 11 hours]]-SUM(N2:N35)</f>
-        <v>669</v>
+        <v>85</v>
       </c>
       <c r="O36" s="7">
-        <f>Table1[[#This Row],[Estimated hours]]-SUM(B2:B35)</f>
-        <v>0</v>
+        <f>Table1[[#This Row],[Sprint 12 hours]]-SUM(O2:O35)</f>
+        <v>24</v>
       </c>
       <c r="P36" s="7"/>
+      <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:41" s="4" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="7">
-        <f>B36</f>
+        <f>SUM(B2:B35)</f>
         <v>1184</v>
       </c>
       <c r="C37" s="8">
@@ -3818,7 +3866,7 @@
         <v>-1.9895196601282805E-13</v>
       </c>
       <c r="P37" s="8"/>
-      <c r="Q37" s="5"/>
+      <c r="Q37" s="12"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
